--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx
@@ -683,7 +683,7 @@
         <v>103464256</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
